--- a/data/case1/11/Qlm2_14.xlsx
+++ b/data/case1/11/Qlm2_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.25011091601324864</v>
+        <v>-0.24711565198759189</v>
       </c>
       <c r="B1" s="0">
-        <v>0.24991280563558149</v>
+        <v>0.24692851511571234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.22781274014126218</v>
+        <v>-0.17176775076050887</v>
       </c>
       <c r="B2" s="0">
-        <v>0.22696731496169953</v>
+        <v>0.17129964859223001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13230402183661205</v>
+        <v>-0.12159800624577777</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13204250284994501</v>
+        <v>0.12124860204961863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12404250298559205</v>
+        <v>-0.11324860214501875</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12329672554783677</v>
+        <v>0.11278319271417026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.096765261509661471</v>
+        <v>-0.10978319277053217</v>
       </c>
       <c r="B5" s="0">
-        <v>0.09534076232858979</v>
+        <v>0.1081962704864905</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0038780187672990962</v>
+        <v>-0.008998037416754201</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0039644460329597564</v>
+        <v>0.0088932779540460416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.013964445836097905</v>
+        <v>0.0011067219086622337</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.013977346557715986</v>
+        <v>-0.0011202998511401496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.023977346362623386</v>
+        <v>0.011120299713931026</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.024006718202472133</v>
+        <v>-0.011131093353121901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.026006718107260962</v>
+        <v>0.013131093290520202</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.026039151760356649</v>
+        <v>-0.013140017285891759</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.028039151670707696</v>
+        <v>0.015140017225132141</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.02803924506468114</v>
+        <v>-0.015139645575001026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.020657716031825757</v>
+        <v>-0.03212773405809255</v>
       </c>
       <c r="B11" s="0">
-        <v>0.020638164590913277</v>
+        <v>0.032098742104209599</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.017138164699261438</v>
+        <v>-0.028598742180213854</v>
       </c>
       <c r="B12" s="0">
-        <v>0.016991390747103541</v>
+        <v>0.028377273312641282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.013491390862378161</v>
+        <v>-0.017164761379098614</v>
       </c>
       <c r="B13" s="0">
-        <v>0.013427981691604529</v>
+        <v>0.017079145135324936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0054279818621774112</v>
+        <v>-0.0090791452610003986</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0054106396845350346</v>
+        <v>0.0090514825881342631</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0044106397727903257</v>
+        <v>-0.0080514826507451787</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0044010659161495269</v>
+        <v>0.0080336412915515965</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060334071585641524</v>
+        <v>-0.0060336413642456677</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060029884144197077</v>
+        <v>0.0060031678911722786</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040029885173158419</v>
+        <v>-0.0040031679652372532</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999998728879049</v>
+        <v>0.0039999999072559689</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016100065568920741</v>
+        <v>-0.069160764413009446</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016090487814619081</v>
+        <v>0.069052228812378047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090487865794586</v>
+        <v>-0.065052228853460292</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015750931034574</v>
+        <v>0.064234019721200575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080157509866687349</v>
+        <v>-0.06023401977918752</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055276792840857</v>
+        <v>0.059999582657075834</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005527735539971</v>
+        <v>-0.0040057281362759767</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999432893674</v>
+        <v>0.0039999999380118112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.090663293203618878</v>
+        <v>-0.045701642398864095</v>
       </c>
       <c r="B22" s="0">
-        <v>0.090293363638588531</v>
+        <v>0.04549177192592424</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.085293363737776851</v>
+        <v>-0.040491771990414094</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084559353355669664</v>
+        <v>0.040097479334415098</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098654170254804</v>
+        <v>-0.020097479541487218</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999700972992</v>
+        <v>0.019999999790274892</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097218781197595305</v>
+        <v>-0.097198233133507728</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097097957080626074</v>
+        <v>0.097077736802095416</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094597957191616899</v>
+        <v>-0.094577736873114659</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094440754660322312</v>
+        <v>0.094421575534235913</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091940754776157707</v>
+        <v>-0.091921575608995276</v>
       </c>
       <c r="B27" s="0">
-        <v>0.090999682730162235</v>
+        <v>0.090990497104204593</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.088999682869202346</v>
+        <v>-0.088990497190072126</v>
       </c>
       <c r="B28" s="0">
-        <v>0.08835567344443529</v>
+        <v>0.088353188064519195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081355673661122729</v>
+        <v>-0.08135318820895332</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081169663882891818</v>
+        <v>0.081168844760910908</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021169664738098781</v>
+        <v>-0.021168845396268399</v>
       </c>
       <c r="B30" s="0">
-        <v>0.02102136454079595</v>
+        <v>0.021021976700056122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021364773430633</v>
+        <v>-0.014021976854902363</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000596692371303</v>
+        <v>0.014000862567646877</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.004000596961645897</v>
+        <v>-0.0040008627506225025</v>
       </c>
       <c r="B32" s="0">
-        <v>0.00399999980171728</v>
+        <v>0.0039999998716755414</v>
       </c>
     </row>
   </sheetData>
